--- a/Trial/Assets/Resources/Craft_Datas/Craft_Data_requests.xlsx
+++ b/Trial/Assets/Resources/Craft_Datas/Craft_Data_requests.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3146"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3437"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
@@ -26,49 +26,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <x:si>
-    <x:t>Nickel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iron</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Floor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uranium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Copper</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Others</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diamond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Turret</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wall</x:t>
-  </x:si>
-  <x:si>
     <x:t>platinum</x:t>
   </x:si>
   <x:si>
-    <x:t>Titanium</x:t>
+    <x:t>aluminum</x:t>
   </x:si>
   <x:si>
-    <x:t>aluminum</x:t>
+    <x:t>Titanium</x:t>
   </x:si>
   <x:si>
     <x:t>Tungsten</x:t>
   </x:si>
   <x:si>
     <x:t>Building level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uranium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Others</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diamond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Turret</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nickel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Floor</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -832,7 +832,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B1">
         <x:v>1</x:v>
@@ -840,7 +840,7 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>0</x:v>
@@ -856,7 +856,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5">
         <x:v>0</x:v>
@@ -882,7 +882,7 @@
   <x:dimension ref="A1:J26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="N17" activeCellId="0" sqref="N17:N17"/>
+      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.39999999999999857891"/>
@@ -910,10 +910,10 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="2"/>
@@ -926,34 +926,34 @@
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
@@ -961,31 +961,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="2">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="2">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E4" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="2">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="2">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H4" s="2">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I4" s="2">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J4" s="2">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
@@ -1054,10 +1054,10 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="2"/>
       <x:c r="D7" s="2"/>
@@ -1070,34 +1070,34 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -1105,31 +1105,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="2">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D9" s="2">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F9" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G9" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I9" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J9" s="2">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -1201,7 +1201,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="2"/>
       <x:c r="D12" s="2"/>
@@ -1214,34 +1214,34 @@
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G13" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H13" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J13" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
@@ -1249,31 +1249,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C14" s="2">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D14" s="2">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="2">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F14" s="2">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="2">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H14" s="2">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I14" s="2">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J14" s="2">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
@@ -1342,10 +1342,10 @@
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C17" s="2"/>
       <x:c r="D17" s="2"/>
@@ -1358,34 +1358,34 @@
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G18" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
@@ -1393,31 +1393,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C19" s="2">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D19" s="2">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="2">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F19" s="2">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G19" s="2">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H19" s="2">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I19" s="2">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J19" s="2">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
@@ -1486,10 +1486,10 @@
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C22" s="2"/>
       <x:c r="D22" s="2"/>
@@ -1502,34 +1502,34 @@
     </x:row>
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J23" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
@@ -1537,31 +1537,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C24" s="2">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D24" s="2">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E24" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F24" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G24" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H24" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I24" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J24" s="2">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10">
